--- a/xlsx/2024年按月汇总数据_output.xlsx
+++ b/xlsx/2024年按月汇总数据_output.xlsx
@@ -1,37 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\python_project_vs\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7866F1-6BBD-437A-B50B-38652DDDDB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="7080" yWindow="3120" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>期初</t>
+  </si>
+  <si>
+    <t>赋予</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>过期</t>
+  </si>
+  <si>
+    <t>其他扣减</t>
+  </si>
+  <si>
+    <t>期末</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
+  <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +122,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,316 +446,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>月份</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>赋予</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>使用</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>过期</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>其他扣减</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>期末</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-01</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>14941902.78</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8446586.689999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6283566.81</v>
-      </c>
-      <c r="E2" t="n">
-        <v>639658.8</v>
-      </c>
-      <c r="F2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>10420539.210000001</v>
+      </c>
+      <c r="C2">
+        <v>16588562.449999999</v>
+      </c>
+      <c r="D2">
+        <v>8997772.3499999996</v>
+      </c>
+      <c r="E2">
+        <v>6364976.3499999996</v>
+      </c>
+      <c r="F2">
+        <v>695921.39</v>
+      </c>
+      <c r="G2">
         <v>10950431.57</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-02</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>10950431.57</v>
+      </c>
+      <c r="C3">
         <v>13482035.51</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3">
         <v>5558357.79</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3">
         <v>4591020.71</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3">
         <v>509431.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>13773657.08</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-03</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>13773657.08</v>
+      </c>
+      <c r="C4">
         <v>11966665.68</v>
       </c>
-      <c r="C4" t="n">
-        <v>8798809.51</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4">
+        <v>8798809.5099999998</v>
+      </c>
+      <c r="E4">
         <v>5191708.8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4">
         <v>526311.77</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>11223492.68</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>13778633.29</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7176274.57</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5168354.930000001</v>
-      </c>
-      <c r="E5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>11223492.68</v>
+      </c>
+      <c r="C5">
+        <v>13778633.289999999</v>
+      </c>
+      <c r="D5">
+        <v>7176274.5700000003</v>
+      </c>
+      <c r="E5">
+        <v>5168354.9300000006</v>
+      </c>
+      <c r="F5">
         <v>672575.89</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>11984920.58</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-05</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10207559.63</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6477024.05</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11984920.58</v>
+      </c>
+      <c r="C6">
+        <v>10207559.630000001</v>
+      </c>
+      <c r="D6">
+        <v>6477024.0499999998</v>
+      </c>
+      <c r="E6">
         <v>4360804.45</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6">
         <v>602724.26</v>
       </c>
-      <c r="F6" t="n">
-        <v>10751927.45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="G6">
+        <v>10751927.449999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>10751927.449999999</v>
+      </c>
+      <c r="C7">
         <v>12318067.65</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7">
         <v>7917428.96</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7">
         <v>3440788.28</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7">
         <v>761044.47</v>
       </c>
-      <c r="F7" t="n">
-        <v>10950733.39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024-07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="G7">
+        <v>10950733.390000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>10950733.390000001</v>
+      </c>
+      <c r="C8">
         <v>10291054.34</v>
       </c>
-      <c r="C8" t="n">
-        <v>6950284.98</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="D8">
+        <v>6950284.9800000004</v>
+      </c>
+      <c r="E8">
         <v>2791807.94</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8">
         <v>539780.76</v>
       </c>
-      <c r="F8" t="n">
-        <v>10959914.05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2024-08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9855889.949999999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7229181.97</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="G8">
+        <v>10959914.050000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>10959914.050000001</v>
+      </c>
+      <c r="C9">
+        <v>9855889.9499999993</v>
+      </c>
+      <c r="D9">
+        <v>7229181.9699999997</v>
+      </c>
+      <c r="E9">
         <v>2908768.83</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9">
         <v>551166.28</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>10126686.92</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024-09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8668122.74</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5723687.62</v>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>10126686.92</v>
+      </c>
+      <c r="C10">
+        <v>8668122.7400000002</v>
+      </c>
+      <c r="D10">
+        <v>5723687.6200000001</v>
+      </c>
+      <c r="E10">
         <v>3232943.41</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10">
         <v>374499.2</v>
       </c>
-      <c r="F10" t="n">
-        <v>9463679.43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8353993.08</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="G10">
+        <v>9463679.4299999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>9463679.4299999997</v>
+      </c>
+      <c r="C11">
+        <v>8353993.0800000001</v>
+      </c>
+      <c r="D11">
         <v>5286416.63</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11">
         <v>3244479.24</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11">
         <v>333187.32</v>
       </c>
-      <c r="F11" t="n">
-        <v>8953589.32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="G11">
+        <v>8953589.3200000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>8953589.3200000003</v>
+      </c>
+      <c r="C12">
         <v>11356901.43</v>
       </c>
-      <c r="C12" t="n">
-        <v>6635367.72</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="D12">
+        <v>6635367.7199999997</v>
+      </c>
+      <c r="E12">
         <v>3693937.29</v>
       </c>
-      <c r="E12" t="n">
-        <v>599281.17</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9381904.57</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="F12">
+        <v>599281.17000000004</v>
+      </c>
+      <c r="G12">
+        <v>9381904.5700000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>9381904.5700000003</v>
+      </c>
+      <c r="C13">
         <v>10371480.5</v>
       </c>
-      <c r="C13" t="n">
-        <v>6221443.12</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="D13">
+        <v>6221443.1200000001</v>
+      </c>
+      <c r="E13">
         <v>3439937.03</v>
       </c>
-      <c r="E13" t="n">
-        <v>699122.8199999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9392882.1</v>
+      <c r="F13">
+        <v>699122.82</v>
+      </c>
+      <c r="G13">
+        <v>9392882.0999999996</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>